--- a/public/reports/3059 - Svetionik/2026/01/prepaid/complete_report_Svetionik_prepaid_01_2026.xlsx
+++ b/public/reports/3059 - Svetionik/2026/01/prepaid/complete_report_Svetionik_prepaid_01_2026.xlsx
@@ -79,7 +79,7 @@
     <t>Сврха уплате</t>
   </si>
   <si>
-    <t>Хуманитарна акција прикупљања средстава у оквиру реализације Пројекта „Донирај стипендију и хуманитарни пакет“  чији су корисници млади и деца из социјално угрожених породица којима је неопходна финансијска подршка за наставак образовања и породице које се суочавају са свакодневним изазовима обезбеђивања основних животних потреба.</t>
+    <t/>
   </si>
   <si>
     <t>Напомена:</t>
@@ -865,7 +865,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>
